--- a/weight_addition.xlsx
+++ b/weight_addition.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -86,8 +86,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -398,7 +404,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,72 +421,72 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>95</v>
+      <c r="B2" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>92</v>
+      <c r="B3" s="2">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>74</v>
+      <c r="B4" s="2">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>66</v>
+      <c r="B5" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>61</v>
+      <c r="B6" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>75</v>
+      <c r="B7" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>78</v>
+      <c r="B8" s="2">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>86</v>
+      <c r="B9" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>68</v>
+      <c r="B10" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +507,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,8 +524,8 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <v>4050</v>
+      <c r="B2" s="3">
+        <v>2731</v>
       </c>
     </row>
   </sheetData>
